--- a/db_take_rate.xlsx
+++ b/db_take_rate.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcello_galimberti/Documents/Marcello Galimberti/ADI business consulting/Offerte 2023/Ducati 2023/ASC/Simulazione/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38113ADB-E6E2-D848-B7D6-613CDABBD251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB61BF8-27E4-C34A-9022-3983F2CF33EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="3160" windowWidth="27240" windowHeight="16440" xr2:uid="{A563E2AD-6850-3345-B3D1-E0DED54F9F34}"/>
+    <workbookView xWindow="29700" yWindow="520" windowWidth="21860" windowHeight="26560" xr2:uid="{A563E2AD-6850-3345-B3D1-E0DED54F9F34}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="26">
   <si>
     <t>Versione</t>
   </si>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D555BCBB-4695-7D40-A207-568F828079C4}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -612,7 +612,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>3</v>
@@ -626,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>4</v>
@@ -640,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
@@ -654,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>6</v>
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -682,7 +682,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -696,7 +696,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -710,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="2">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>14</v>
@@ -724,7 +724,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="2">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>15</v>
@@ -738,7 +738,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="2">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>16</v>
@@ -769,10 +769,10 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" s="4">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -783,10 +783,10 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="4">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -797,10 +797,10 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -811,38 +811,38 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="4">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D24" s="4">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -853,10 +853,10 @@
         <v>0.45</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="4">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -867,10 +867,10 @@
         <v>0.45</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D27" s="4">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -881,10 +881,10 @@
         <v>0.45</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D28" s="4">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -895,10 +895,10 @@
         <v>0.45</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D29" s="4">
-        <v>0.08</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -909,10 +909,10 @@
         <v>0.45</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D30" s="4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -923,10 +923,10 @@
         <v>0.45</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D31" s="4">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -937,10 +937,10 @@
         <v>0.45</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D32" s="4">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -951,7 +951,7 @@
         <v>0.45</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="4">
         <v>0.5</v>
@@ -965,10 +965,10 @@
         <v>0.45</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" s="4">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -979,10 +979,10 @@
         <v>0.45</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D35" s="4">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -993,38 +993,38 @@
         <v>0.45</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D36" s="4">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B37" s="2">
-        <v>0.45</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D37" s="4">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B38" s="2">
-        <v>0.45</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D38" s="4">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1035,10 +1035,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" s="4">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1049,10 +1049,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D40" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1063,10 +1063,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D41" s="4">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1077,7 +1077,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="4">
         <v>0.5</v>
@@ -1091,10 +1091,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D43" s="4">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1105,38 +1105,38 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D44" s="4">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D45" s="4">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B46" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D46" s="4">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1147,10 +1147,10 @@
         <v>0.01</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D47" s="4">
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1161,10 +1161,10 @@
         <v>0.01</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D48" s="4">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1175,10 +1175,10 @@
         <v>0.01</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D49" s="4">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1189,10 +1189,10 @@
         <v>0.01</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D50" s="4">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1203,10 +1203,10 @@
         <v>0.01</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D51" s="4">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1217,7 +1217,7 @@
         <v>0.01</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="4">
         <v>0.5</v>
@@ -1231,10 +1231,10 @@
         <v>0.01</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" s="4">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1245,10 +1245,10 @@
         <v>0.01</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D54" s="4">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1259,37 +1259,9 @@
         <v>0.01</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D55" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B57" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="4">
         <v>0.03</v>
       </c>
     </row>
